--- a/medicine/Enfance/Lucie_Papineau_(écrivaine)/Lucie_Papineau_(écrivaine).xlsx
+++ b/medicine/Enfance/Lucie_Papineau_(écrivaine)/Lucie_Papineau_(écrivaine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lucie_Papineau_(%C3%A9crivaine)</t>
+          <t>Lucie_Papineau_(écrivaine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lucie Papineau est une romancière jeunesse québécoise née à Longueuil, le 26 avril 1962. 
 Elle détient un baccalauréat en communication de l'Université du Québec à Montréal.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lucie_Papineau_(%C3%A9crivaine)</t>
+          <t>Lucie_Papineau_(écrivaine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Ouvrages récompensés par des prix</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1990 - Concours littéraire ACELF, La Dompteuse de perruche[1]
-1991 - Prix « Livres 92 » de l'Association des consommateurs du Québec, La Dompteuse de rêves[2]
-1998 - Prix du livre M. Christie, Pas de taches pour une girafe[3]
-2005 - Prix du Gouverneur général pour les illustrations de son livre Un chant de Noël par Stéphane Poulin[4]
-2019 - Prix du littéraires du Gouverneur général 2019 pour littérature jeunesse de son livre L'escapade de Paolo[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1990 - Concours littéraire ACELF, La Dompteuse de perruche
+1991 - Prix « Livres 92 » de l'Association des consommateurs du Québec, La Dompteuse de rêves
+1998 - Prix du livre M. Christie, Pas de taches pour une girafe
+2005 - Prix du Gouverneur général pour les illustrations de son livre Un chant de Noël par Stéphane Poulin
+2019 - Prix du littéraires du Gouverneur général 2019 pour littérature jeunesse de son livre L'escapade de Paolo.</t>
         </is>
       </c>
     </row>
